--- a/对话表等静态数据/uiTexts.xlsx
+++ b/对话表等静态数据/uiTexts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>newGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,22 @@
   </si>
   <si>
     <t>valueChs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveNotExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saveInvalid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有已保存的存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档文件损坏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -550,6 +566,22 @@
         <v>19</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
